--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\habit.bintangbano\public\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7FBA2-3E0C-4701-8A89-2AB722850C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A6BDEB-71AB-42E4-BB8D-4E441CB27C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>no_langganan</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>jumlah_tagihan</t>
+  </si>
+  <si>
+    <t>stand_ini</t>
+  </si>
+  <si>
+    <t>pakai</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -395,11 +401,11 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +419,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\habit.bintangbano\public\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A6BDEB-71AB-42E4-BB8D-4E441CB27C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F966285-9BC0-4126-B8AC-574F01798E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>stand_ini</t>
   </si>
   <si>
-    <t>pakai</t>
+    <t>stand_lalu</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -419,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>

--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\habit.bintangbano\public\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F966285-9BC0-4126-B8AC-574F01798E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EBB75B-064F-436F-954C-C81E636EEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>no_langganan</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>stand_lalu</t>
+  </si>
+  <si>
+    <t>petugas</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -405,7 +408,7 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +429,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\habit.bintangbano\public\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EBB75B-064F-436F-954C-C81E636EEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -48,13 +47,13 @@
     <t>stand_lalu</t>
   </si>
   <si>
-    <t>petugas</t>
+    <t>kode_cabang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -392,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -404,7 +404,8 @@
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\habit.bintangbano\public\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EBB75B-064F-436F-954C-C81E636EEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09942860-4645-402C-96E5-58DEB9115D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>no_langganan</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>petugas</t>
+  </si>
+  <si>
+    <t>golongan</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -404,11 +410,11 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,18 +425,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/dist/datapenagihan.xlsx
+++ b/public/dist/datapenagihan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\habit.bintangbano\public\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09942860-4645-402C-96E5-58DEB9115D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -48,19 +47,19 @@
     <t>stand_lalu</t>
   </si>
   <si>
-    <t>petugas</t>
-  </si>
-  <si>
     <t>golongan</t>
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>cabang_kode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -398,11 +397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -425,10 +424,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -443,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
